--- a/analyst/Franzi/rmonize/data_dictionary/DD_DEGS1_FRANZI.xlsx
+++ b/analyst/Franzi/rmonize/data_dictionary/DD_DEGS1_FRANZI.xlsx
@@ -1,22 +1,747 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\analyst\Franzi\rmonize\data_dictionary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{8F919273-76F9-47C0-9B9A-148AC22ABAD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="238">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>valueType</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>FQpomm2</t>
+  </si>
+  <si>
+    <t>FQbkart2</t>
+  </si>
+  <si>
+    <t>FQgkart1</t>
+  </si>
+  <si>
+    <t>FQgkart2</t>
+  </si>
+  <si>
+    <t>FQbkart1</t>
+  </si>
+  <si>
+    <t>FQpomm1</t>
+  </si>
+  <si>
+    <t>FQggem2</t>
+  </si>
+  <si>
+    <t>FQggem1</t>
+  </si>
+  <si>
+    <t>FQrgem2</t>
+  </si>
+  <si>
+    <t>FQrgem1</t>
+  </si>
+  <si>
+    <t>FQhuelse2</t>
+  </si>
+  <si>
+    <t>FQhuelse1</t>
+  </si>
+  <si>
+    <t>FQgobst2</t>
+  </si>
+  <si>
+    <t>FQfobst1</t>
+  </si>
+  <si>
+    <t>FQfobst2</t>
+  </si>
+  <si>
+    <t>FQgobst1</t>
+  </si>
+  <si>
+    <t>FQnuss2</t>
+  </si>
+  <si>
+    <t>FQnuss1</t>
+  </si>
+  <si>
+    <t>FQmilch1</t>
+  </si>
+  <si>
+    <t>FQmilch2</t>
+  </si>
+  <si>
+    <t>FQquark2</t>
+  </si>
+  <si>
+    <t>FQquark1</t>
+  </si>
+  <si>
+    <t>FQfkaes1</t>
+  </si>
+  <si>
+    <t>FQfkaes2</t>
+  </si>
+  <si>
+    <t>FQkaes1</t>
+  </si>
+  <si>
+    <t>FQkaes2</t>
+  </si>
+  <si>
+    <t>FQnudel1</t>
+  </si>
+  <si>
+    <t>FQnudel2</t>
+  </si>
+  <si>
+    <t>FQreis1</t>
+  </si>
+  <si>
+    <t>FQreis2</t>
+  </si>
+  <si>
+    <t>FQvbrot1</t>
+  </si>
+  <si>
+    <t>FQvbrot2</t>
+  </si>
+  <si>
+    <t>FQmbrot1</t>
+  </si>
+  <si>
+    <t>FQmbrot2</t>
+  </si>
+  <si>
+    <t>FQwbrot1</t>
+  </si>
+  <si>
+    <t>FQwbrot2</t>
+  </si>
+  <si>
+    <t>FQcorn1</t>
+  </si>
+  <si>
+    <t>FQcorn2</t>
+  </si>
+  <si>
+    <t>FQmuesli1</t>
+  </si>
+  <si>
+    <t>FQmuesli2</t>
+  </si>
+  <si>
+    <t>FQcrack1</t>
+  </si>
+  <si>
+    <t>FQcrack2</t>
+  </si>
+  <si>
+    <t>FQfleisch1</t>
+  </si>
+  <si>
+    <t>FQfleisch2</t>
+  </si>
+  <si>
+    <t>FQhuhn1</t>
+  </si>
+  <si>
+    <t>FQhuhn2</t>
+  </si>
+  <si>
+    <t>FQburg1</t>
+  </si>
+  <si>
+    <t>FQburg2</t>
+  </si>
+  <si>
+    <t>FQcwurst1</t>
+  </si>
+  <si>
+    <t>FQcwurst2</t>
+  </si>
+  <si>
+    <t>FQwurst1</t>
+  </si>
+  <si>
+    <t>FQwurst2</t>
+  </si>
+  <si>
+    <t>FQschink1</t>
+  </si>
+  <si>
+    <t>FQschink2</t>
+  </si>
+  <si>
+    <t>FQwfisch2</t>
+  </si>
+  <si>
+    <t>FQwfisch1</t>
+  </si>
+  <si>
+    <t>FQkfisch2</t>
+  </si>
+  <si>
+    <t>FQkfisch1</t>
+  </si>
+  <si>
+    <t>FQei1</t>
+  </si>
+  <si>
+    <t>FQei2</t>
+  </si>
+  <si>
+    <t>FQsfett1</t>
+  </si>
+  <si>
+    <t>FQsfett2</t>
+  </si>
+  <si>
+    <t>FQhonig1</t>
+  </si>
+  <si>
+    <t>FQhonig2</t>
+  </si>
+  <si>
+    <t>FQncreme1</t>
+  </si>
+  <si>
+    <t>FQncreme2</t>
+  </si>
+  <si>
+    <t>FQschok1</t>
+  </si>
+  <si>
+    <t>FQschok2</t>
+  </si>
+  <si>
+    <t>FQsuess1</t>
+  </si>
+  <si>
+    <t>FQsuess2</t>
+  </si>
+  <si>
+    <t>FQeis1</t>
+  </si>
+  <si>
+    <t>FQeis2</t>
+  </si>
+  <si>
+    <t>FQkuch1</t>
+  </si>
+  <si>
+    <t>FQkuch2</t>
+  </si>
+  <si>
+    <t>FQkeks2</t>
+  </si>
+  <si>
+    <t>FQkeks1</t>
+  </si>
+  <si>
+    <t>FQfsaft1</t>
+  </si>
+  <si>
+    <t>FQfsaft2</t>
+  </si>
+  <si>
+    <t>FQgsaft1</t>
+  </si>
+  <si>
+    <t>FQgsaft2</t>
+  </si>
+  <si>
+    <t>FQcola1</t>
+  </si>
+  <si>
+    <t>FQcola2</t>
+  </si>
+  <si>
+    <t>FQlight1</t>
+  </si>
+  <si>
+    <t>FQlight2</t>
+  </si>
+  <si>
+    <t>FQkaff1</t>
+  </si>
+  <si>
+    <t>FQkaff2</t>
+  </si>
+  <si>
+    <t>FQstee1</t>
+  </si>
+  <si>
+    <t>FQstee2</t>
+  </si>
+  <si>
+    <t>FQftee1</t>
+  </si>
+  <si>
+    <t>FQftee2</t>
+  </si>
+  <si>
+    <t>FQwass1</t>
+  </si>
+  <si>
+    <t>FQwass2</t>
+  </si>
+  <si>
+    <t>FQwein1</t>
+  </si>
+  <si>
+    <t>FQwein2</t>
+  </si>
+  <si>
+    <t>FQbier1</t>
+  </si>
+  <si>
+    <t>FQbier2</t>
+  </si>
+  <si>
+    <t>FQschnaps1</t>
+  </si>
+  <si>
+    <t>FQschnaps2</t>
+  </si>
+  <si>
+    <t>FQcockt1</t>
+  </si>
+  <si>
+    <t>FQcockt2</t>
+  </si>
+  <si>
+    <t>FQpizza1</t>
+  </si>
+  <si>
+    <t>FQchips2</t>
+  </si>
+  <si>
+    <t>FQchips1</t>
+  </si>
+  <si>
+    <t>FQpizza2</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>FQfleisch3</t>
+  </si>
+  <si>
+    <t>Wie oft paniertes Fleisch?</t>
+  </si>
+  <si>
+    <t>FQhuhn3</t>
+  </si>
+  <si>
+    <t>Anteil paniertes oder frittiertes Geflügel</t>
+  </si>
+  <si>
+    <t>FQwurst3</t>
+  </si>
+  <si>
+    <t>Wie oft fettarme Wurst?</t>
+  </si>
+  <si>
+    <t>FQwfisch3</t>
+  </si>
+  <si>
+    <t>Anteil panierter Fisch</t>
+  </si>
+  <si>
+    <t>FQfsaft3</t>
+  </si>
+  <si>
+    <t>Fruchtsaft verdünnt/unverdünnt</t>
+  </si>
+  <si>
+    <t>FQgsaft3</t>
+  </si>
+  <si>
+    <t>Gemüsesaft verdünnt/unverdünnt</t>
+  </si>
+  <si>
+    <t>FQkaff3</t>
+  </si>
+  <si>
+    <t>Zucker:Kaffee</t>
+  </si>
+  <si>
+    <t>FQstee3</t>
+  </si>
+  <si>
+    <t>Zucker:schwarzer oder grüner Tee</t>
+  </si>
+  <si>
+    <t>FQftee3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zucker: früchte- oder Kräutertee </t>
+  </si>
+  <si>
+    <t>Wie oft gekochte Kartoffeln?</t>
+  </si>
+  <si>
+    <t>Wie viel gekochte Kartoffeln?</t>
+  </si>
+  <si>
+    <t>Wie oft gebratene Kartoffeln?</t>
+  </si>
+  <si>
+    <t>Wie viel gebratene Kartoffeln?</t>
+  </si>
+  <si>
+    <t>Wie oft Pommes frites?</t>
+  </si>
+  <si>
+    <t>Wie viel Pommes frites?</t>
+  </si>
+  <si>
+    <t>Wie oft rohes Gemüse?</t>
+  </si>
+  <si>
+    <t>Wie viel rohes Gemüse?</t>
+  </si>
+  <si>
+    <t>Wie oft gegartes Gemüse?</t>
+  </si>
+  <si>
+    <t>Wie viel gegartes Gemüse?</t>
+  </si>
+  <si>
+    <t>Wie oft Hülsenfrüchte?</t>
+  </si>
+  <si>
+    <t>Wie viel Hülsenfrüchte?</t>
+  </si>
+  <si>
+    <t>Wie oft frisches Obst?</t>
+  </si>
+  <si>
+    <t>Wie viel frisches Obst?</t>
+  </si>
+  <si>
+    <t>Wie viel gegartes Obst?</t>
+  </si>
+  <si>
+    <t>Wie oft gegartes Obst?</t>
+  </si>
+  <si>
+    <t>Wie oft Nüsse?</t>
+  </si>
+  <si>
+    <t>Wie viel Nüsse?</t>
+  </si>
+  <si>
+    <t>Wie oft Milch?</t>
+  </si>
+  <si>
+    <t>Wie viel Milch?</t>
+  </si>
+  <si>
+    <t>Wie oft Quark, Joghurt oder Dickmilch?</t>
+  </si>
+  <si>
+    <t>Wie viel Quark, Joghurt oder Dickmilch?</t>
+  </si>
+  <si>
+    <t>FQquark3</t>
+  </si>
+  <si>
+    <t>Anteil fettarmer Quark, Joghurt, Dickmilch</t>
+  </si>
+  <si>
+    <t>FQfkaes3</t>
+  </si>
+  <si>
+    <t>Anteil fettarmer Frischkäse</t>
+  </si>
+  <si>
+    <t>FQkaes3</t>
+  </si>
+  <si>
+    <t>Anteil fettarmer Käse</t>
+  </si>
+  <si>
+    <t>Wie oft Frischkäse?</t>
+  </si>
+  <si>
+    <t>Wie viel Frischkäse?</t>
+  </si>
+  <si>
+    <t>Wie oft Käse (Weich-, Schnitt- oder Hartkäse)?</t>
+  </si>
+  <si>
+    <t>Wie viel Käse (Weich-, Schnitt- oder Hartkäse)?</t>
+  </si>
+  <si>
+    <t>Wie oft Nudeln?</t>
+  </si>
+  <si>
+    <t>Wie viel Nudeln?</t>
+  </si>
+  <si>
+    <t>Wie oft Reis?</t>
+  </si>
+  <si>
+    <t>Wie viel Reis?</t>
+  </si>
+  <si>
+    <t>Wie oft Vollkornbrot oder -brötchen?</t>
+  </si>
+  <si>
+    <t>Wie viel Vollkornbrot oder -brötchen?</t>
+  </si>
+  <si>
+    <t>Wie oft Graubrot oder Mischbrot?</t>
+  </si>
+  <si>
+    <t>Wie viel Graubrot oder Mischbrot?</t>
+  </si>
+  <si>
+    <t>Wie oft Weißbrot oder Brötchen?</t>
+  </si>
+  <si>
+    <t>Wie viel Weißbrot oder Brötchen?</t>
+  </si>
+  <si>
+    <t>Wie oft Cornflakes?</t>
+  </si>
+  <si>
+    <t>Wie viel Cornflakes?</t>
+  </si>
+  <si>
+    <t>Wie oft Müsli?</t>
+  </si>
+  <si>
+    <t>Wie viel Müsli?</t>
+  </si>
+  <si>
+    <t>Wie oft Salzgebäck oder Cracker?</t>
+  </si>
+  <si>
+    <t>Wie viel Salzgebäck oder Cracker?</t>
+  </si>
+  <si>
+    <t>Wie oft Fleisch (ohne Geflügel, ohne Wurst)?</t>
+  </si>
+  <si>
+    <t>Wie viel Fleisch (ohne Geflügel, ohne Wurst)?</t>
+  </si>
+  <si>
+    <t>Wie oft Geflügel?</t>
+  </si>
+  <si>
+    <t>Wie viel Geflügel?</t>
+  </si>
+  <si>
+    <t>Wie oft Hamburger oder Döner Kebab?</t>
+  </si>
+  <si>
+    <t>Wie viel Hamburger oder Döner Kebab?</t>
+  </si>
+  <si>
+    <t>Wie oft Brat- oder Currywurst?</t>
+  </si>
+  <si>
+    <t>Wie viel Brat- oder Currywurst?</t>
+  </si>
+  <si>
+    <t>Wie oft Wurst?</t>
+  </si>
+  <si>
+    <t>Wie viel Wurst?</t>
+  </si>
+  <si>
+    <t>Wie oft Schinken?</t>
+  </si>
+  <si>
+    <t>Wie viel Schinken?</t>
+  </si>
+  <si>
+    <t>Wie oft kalten Fisch?</t>
+  </si>
+  <si>
+    <t>Wie viel kalten Fisch?</t>
+  </si>
+  <si>
+    <t>Wie oft warmen Fisch?</t>
+  </si>
+  <si>
+    <t>Wie viel warmen Fisch?</t>
+  </si>
+  <si>
+    <t>Wie oft Eier?</t>
+  </si>
+  <si>
+    <t>Wie viel Eier?</t>
+  </si>
+  <si>
+    <t>Wie oft Butter oder Margarine?</t>
+  </si>
+  <si>
+    <t>Wie viel Butter oder Margarine?</t>
+  </si>
+  <si>
+    <t>Wie oft Honig oder Marmelade?</t>
+  </si>
+  <si>
+    <t>Wie viel Honig oder Marmelade?</t>
+  </si>
+  <si>
+    <t>Wie oft Nuss-Nougatcreme?</t>
+  </si>
+  <si>
+    <t>Wie viel Nuss-Nougatcreme?</t>
+  </si>
+  <si>
+    <t>Wie oft Schokolade oder Schokoriegel?</t>
+  </si>
+  <si>
+    <t>Wie viel Schokolade oder Schokoriegel?</t>
+  </si>
+  <si>
+    <t>Wie oft Süßigkeiten?</t>
+  </si>
+  <si>
+    <t>Wie viel Süßigkeiten?</t>
+  </si>
+  <si>
+    <t>Wie oft Eis?</t>
+  </si>
+  <si>
+    <t>Wie viel Eis?</t>
+  </si>
+  <si>
+    <t>Wie oft Kuchen, Torten oder süße Backwaren?</t>
+  </si>
+  <si>
+    <t>Wie viel Kuchen, Torten oder süße Backwaren?</t>
+  </si>
+  <si>
+    <t>Wie oft Kekse?</t>
+  </si>
+  <si>
+    <t>Wie viel Kekse?</t>
+  </si>
+  <si>
+    <t>Wie oft Fruchtsaft?</t>
+  </si>
+  <si>
+    <t>Wie viel Fruchtsaft?</t>
+  </si>
+  <si>
+    <t>Wie oft Gemüsesaft?</t>
+  </si>
+  <si>
+    <t>Wie viel Gemüsesaft?</t>
+  </si>
+  <si>
+    <t>Wie oft zuckerh. Erfrischungsgetränke?</t>
+  </si>
+  <si>
+    <t>Wie viel zuckerh. Erfrischungsgetränke?</t>
+  </si>
+  <si>
+    <t>Wie oft kal. red. Erfrischungsgetränke?</t>
+  </si>
+  <si>
+    <t>Wie viel kal. red. Erfrischungsgetränke?</t>
+  </si>
+  <si>
+    <t>Wie oft Kaffee?</t>
+  </si>
+  <si>
+    <t>Wie viel Kaffee?</t>
+  </si>
+  <si>
+    <t>Wie oft schwarzer oder grüner Tee?</t>
+  </si>
+  <si>
+    <t>Wie viel schwarzer oder grüner Tee?</t>
+  </si>
+  <si>
+    <t>Wie oft Früchte- oder Kräutertee?</t>
+  </si>
+  <si>
+    <t>Wie viel Früchte- oder Kräutertee?</t>
+  </si>
+  <si>
+    <t>Wie oft Wasser?</t>
+  </si>
+  <si>
+    <t>Wie viel Wasser?</t>
+  </si>
+  <si>
+    <t>Wie oft Wein, Sekt oder Obstwein?</t>
+  </si>
+  <si>
+    <t>Wie viel Wein, Sekt oder Obstwein?</t>
+  </si>
+  <si>
+    <t>Wie oft Bier?</t>
+  </si>
+  <si>
+    <t>Wie viel Bier?</t>
+  </si>
+  <si>
+    <t>Wie oft hochprozentige alkoholische Getränke?</t>
+  </si>
+  <si>
+    <t>Wie viel hochprozentige alkoholische Getränke?</t>
+  </si>
+  <si>
+    <t>Wie oft Cocktails o.a. alkoholische Mischgetränke?</t>
+  </si>
+  <si>
+    <t>Wie viel Cocktails o.a. alkoholische Mischgetränke?</t>
+  </si>
+  <si>
+    <t>Wie oft Pizza?</t>
+  </si>
+  <si>
+    <t>Wie viel Pizza?</t>
+  </si>
+  <si>
+    <t>Wie oft Kartoffelchips?</t>
+  </si>
+  <si>
+    <t>Wie viel Kartoffelchips?</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,13 +757,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,22 +798,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -110,7 +865,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -142,9 +897,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,6 +949,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,63 +1142,1332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>valueType</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" t="s">
+        <v>197</v>
+      </c>
+      <c r="D72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" t="s">
+        <v>202</v>
+      </c>
+      <c r="D77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" t="s">
+        <v>203</v>
+      </c>
+      <c r="D78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" t="s">
+        <v>205</v>
+      </c>
+      <c r="D80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" t="s">
+        <v>208</v>
+      </c>
+      <c r="D83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" t="s">
+        <v>211</v>
+      </c>
+      <c r="D86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" t="s">
+        <v>214</v>
+      </c>
+      <c r="D91" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" t="s">
+        <v>216</v>
+      </c>
+      <c r="D93" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" t="s">
+        <v>219</v>
+      </c>
+      <c r="D96" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" t="s">
+        <v>220</v>
+      </c>
+      <c r="D98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" t="s">
+        <v>223</v>
+      </c>
+      <c r="D102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>95</v>
+      </c>
+      <c r="C104" t="s">
+        <v>224</v>
+      </c>
+      <c r="D104" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" t="s">
+        <v>225</v>
+      </c>
+      <c r="D105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" t="s">
+        <v>227</v>
+      </c>
+      <c r="D107" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" t="s">
+        <v>228</v>
+      </c>
+      <c r="D108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>100</v>
+      </c>
+      <c r="C109" t="s">
+        <v>229</v>
+      </c>
+      <c r="D109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>101</v>
+      </c>
+      <c r="C110" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" t="s">
+        <v>231</v>
+      </c>
+      <c r="D111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>104</v>
+      </c>
+      <c r="C113" t="s">
+        <v>233</v>
+      </c>
+      <c r="D113" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>105</v>
+      </c>
+      <c r="C114" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" t="s">
+        <v>235</v>
+      </c>
+      <c r="D115" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>107</v>
+      </c>
+      <c r="C116" t="s">
+        <v>236</v>
+      </c>
+      <c r="D116" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>106</v>
+      </c>
+      <c r="C117" t="s">
+        <v>237</v>
+      </c>
+      <c r="D117" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
